--- a/locale/locale.xlsx
+++ b/locale/locale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1137">
   <si>
     <t>langkey</t>
   </si>
@@ -36,10 +36,10 @@
     <t>about.description</t>
   </si>
   <si>
-    <t xml:space="preserve">**Dota 2** bot created by **&lt;author_name&gt;** with a lot of :heart: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot de **Dota 2** creado por **&lt;author_name&gt;** con mucho :heart: </t>
+    <t xml:space="preserve">**Dota 2** bot created by **{{{author_name}}}** with a lot of :heart: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot de **Dota 2** creado por **{{{author_name}}}** con mucho :heart: </t>
   </si>
   <si>
     <t>about.devserver</t>
@@ -54,16 +54,16 @@
     <t>about.footer</t>
   </si>
   <si>
-    <t xml:space="preserve">v&lt;bot_version&gt; (&lt;bot_update&gt;)</t>
+    <t xml:space="preserve">v{{{bot_version}}} ({{{bot_update}}})</t>
   </si>
   <si>
     <t>about.invitation</t>
   </si>
   <si>
-    <t xml:space="preserve">[Invite me](&lt;link_invite&gt;)</t>
-  </si>
-  <si>
-    <t>[Invítame](&lt;link_invite&gt;)</t>
+    <t xml:space="preserve">[Invite me]({{{link_invite}}})</t>
+  </si>
+  <si>
+    <t>[Invítame]({{{link_invite}}})</t>
   </si>
   <si>
     <t>about.invite</t>
@@ -78,47 +78,47 @@
     <t>about.invitedevserver</t>
   </si>
   <si>
-    <t>[Discord](&lt;link_devserver&gt;)</t>
+    <t>[Discord]({{{link_devserver}}})</t>
   </si>
   <si>
     <t>about.support</t>
   </si>
   <si>
-    <t xml:space="preserve">Gift candies :candy: to **Roshan** &lt;link_kofi&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cómprale caramelos :candy: a **Roshan** &lt;link_kofi&gt;</t>
+    <t xml:space="preserve">Gift candies :candy: to **Roshan** {{{link_kofi}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómprale caramelos :candy: a **Roshan** {{{link_kofi}}}</t>
   </si>
   <si>
     <t>about.title</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;bot_name&gt; - About me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;bot_name&gt; - Sobre mí</t>
+    <t xml:space="preserve">{{{bot_name}}} - About me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{bot_name}}} - Sobre mí</t>
   </si>
   <si>
     <t>account.data</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;account_dota&gt;
-&lt;steam&gt; &lt;account_steam&gt;
-Language &lt;lang&gt;&lt;supporter&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;account_dota&gt;
-&lt;steam&gt; &lt;account_steam&gt;
-Idioma &lt;lang&gt;&lt;supporter&gt;</t>
+    <t xml:space="preserve">{{{emoji_dota}}} {{user_account_dota}}
+{{{emoji_steam}}} {{user_account_steam}}
+Language {{user_account_lang}}{{{supporter}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{emoji_dota}}} {{user_account_dota}}
+{{{steam}}} {{user_account_steam}}
+Idioma {{user_account_lang}}{{{supporter}}}</t>
   </si>
   <si>
     <t>account.deleted</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;roshan&gt; **Your account has been eliminated!** :white_check_mark: &lt;aegis&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;roshan&gt; **¡Tu cuenta ha sido eliminada!** :white_check_mark: &lt;aegis&gt;</t>
+    <t xml:space="preserve">{{{emoji_roshan}}} **Your account has been eliminated!** :white_check_mark: {{{emoji_aegis}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{emoji_roshan}}} **¡Tu cuenta ha sido eliminada!** :white_check_mark: {{{emoji_aegis}}}</t>
   </si>
   <si>
     <t>account.title</t>
@@ -130,6 +130,15 @@
     <t xml:space="preserve">Tu cuenta en Roshan</t>
   </si>
   <si>
+    <t>account_set_language.language_changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language was changed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Idioma fue cambiado!</t>
+  </si>
+  <si>
     <t>akeywords.keyword</t>
   </si>
   <si>
@@ -151,19 +160,19 @@
     <t>bot.needregister</t>
   </si>
   <si>
-    <t xml:space="preserve">:x: You can't use this command because **you aren't registered**. Use `r!register` and follow the instructions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:x: No puedes usar ese comando porque **no estás registrad@**. Para ello, **usa `r!register` y sigue las instrucciones**</t>
+    <t xml:space="preserve">:x: You can't use this command because **you aren't registered**. Use `/register` and follow the instructions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:x: No puedes usar ese comando porque **no estás registrad@**. Para ello, **usa `/register` y sigue las instrucciones**</t>
   </si>
   <si>
     <t>bot.needregistermentioned</t>
   </si>
   <si>
-    <t xml:space="preserve">:x: **&lt;username&gt;** isn't registered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:x: **&lt;username&gt;** no está registrado.</t>
+    <t xml:space="preserve">:x: **{{{username}}}** isn't registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:x: **{{{username}}}** no está registrado.</t>
   </si>
   <si>
     <t>bot.onlybetatesterfunction</t>
@@ -1776,17 +1785,16 @@
     <t>discord.devserverinvite</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;roshan&gt; **Developer server**: &lt;link_devserver&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;roshan&gt; **Servidor de desarrollo**: &lt;link_devserver&gt;</t>
+    <t xml:space="preserve">{{{roshan}}} **Developer server**: {{{link_devserver}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{roshan}}} **Servidor de desarrollo**: {{{link_devserver}}}</t>
   </si>
   <si>
     <t>donate.text</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;patreon&gt; **Patreon**: &lt;link_patreon&gt;
-**Ko-fi**: &lt;link_kofi&gt;</t>
+    <t xml:space="preserve">**Ko-fi**: {{{link_kofi}}}</t>
   </si>
   <si>
     <t>dota2.dire</t>
@@ -2036,12 +2044,12 @@
     <t>errors.field1.value</t>
   </si>
   <si>
-    <t xml:space="preserve">If it's other problem, you can post it at #feedback channel of development server &lt;bot_name&gt;
-&lt;server&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si es otro problema, puedes postearlo en el canal de #bugs del Discord de &lt;bot_name&gt;
-&lt;server&gt;</t>
+    <t xml:space="preserve">If it's other problem, you can post it at #feedback channel of development server {{{bot_name}}}
+{{{server}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si es otro problema, puedes postearlo en el canal de #bugs del Discord de {{{bot_name}}}
+{{{server}}}</t>
   </si>
   <si>
     <t>errors.title</t>
@@ -2071,6 +2079,15 @@
     <t xml:space="preserve">Tu mensaje es demasiado corto, prueba con más palabras.</t>
   </si>
   <si>
+    <t>feedback.message_sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The feedback was sent. Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El comentario fue enviado. ¡Mucahs gracias!</t>
+  </si>
+  <si>
     <t>feeds.more</t>
   </si>
   <si>
@@ -2092,10 +2109,10 @@
     <t>game.currentplayers</t>
   </si>
   <si>
-    <t xml:space="preserve">**&lt;count&gt;** current players playing **&lt;game&gt;**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**&lt;count&gt;** jugadores jugando **&lt;game&gt;** ahora mismo</t>
+    <t xml:space="preserve">**{{{count}}}** current players playing **{{{game}}}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**{{{count}}}** jugadores jugando **{{{game}}}** ahora mismo</t>
   </si>
   <si>
     <t>game.defeat</t>
@@ -2166,18 +2183,18 @@
 :white_small_square: get **notifications** about the bot.
 :white_small_square: **delete messages** with command `r!del [messages number]` - max. 100
 :white_small_square: **pin/unpin** messages reactioning with :pushpin: (Roshan should have **manage messages** permission)
-:white_small_square: **giveaways** `r!giveaway [roles]`
-__**Help command**__: `r!help server`
+:white_small_square: **giveaways** `giveaway [roles]`
+__**Help command**__: `help server`
 :small_blue_diamond: __**Server configuration**__
-`r!server` - show info about server configuration.
+`server` - show info about server configuration.
 :small_blue_diamond: __**Notifications configuration**__
-`r!server notifications on/off` - enable/disable the bot notifications
-`r!server notifications [channel mention]` - configure the notifications channel
+`server notifications on/off` - enable/disable the bot notifications
+`server notifications [channel mention]` - configure the notifications channel
 :small_blue_diamond: __**Feeds configuration**__
 Same commands like Notifications but `feeds` instead of `notifications`.
-`r!server sub &lt;twitter account separated by ,&gt;` - subscriptions to those feeds. Example: `r!server sub wykrhm,DOTA2`.
-`r!server unsub &lt;twitter account separated by ,&gt;` - unsubscriptions to those feeds
-`r!server subscriptions` - feeds avaliables to subscription
+`server sub &lt;twitter account separated by ,&gt;` - subscriptions to those feeds. Example: `server sub wykrhm,DOTA2`.
+`server unsub &lt;twitter account separated by ,&gt;` - unsubscriptions to those feeds
+`server subscriptions` - feeds avaliables to subscription
 :information_source: Notifications and feeds are enabled in default channel, by default.
 :small_blue_diamond: __**More help**__
 If you need more help, come to my server https://discord.gg/SxsYkgX</t>
@@ -2192,17 +2209,17 @@
 :white_small_square: **borrar mensajes** con el comando `r!del [numero mensajes]` - máximo mensajes 100
 :white_small_square: posibilidad de **anclar/desanclar mensajes** reaccionando con :pushpin: (requiere además que Roshan tenga permisos de **administrar mensajes**)
 :white_small_square: **giveaways** `r!giveaway [roles]`
-__**Comando de ayuda**__: `r!help server`
+__**Comando de ayuda**__: `help server`
 :small_blue_diamond: __**Configuración del servidor**__
-`r!server` - muestra información sobre el servidor y su configuración.
+`server` - muestra información sobre el servidor y su configuración.
 :small_blue_diamond: __**Configuración de Notificaciones**__
-`r!server notifications on/off` - activa/desactiva las notificaciones
-`r!server notifications [mención canal]` - configura al canal mencionado para recibir las notificaciones
+`server notifications on/off` - activa/desactiva las notificaciones
+`server notifications [mención canal]` - configura al canal mencionado para recibir las notificaciones
 :small_blue_diamond: __**Configuración de Feeds**__
 Activar/desactivar y el canal funciona como `r!server notifications` solo que es `feeds` en vez de `notifications`
-`r!server sub &lt;nombre de fuentes separadas por ,&gt;` - se subscribe a las fuentes deseadas. Example: `r!server sub wykrhm,DOTA2`.
-`r!server unsub &lt;nombre de fuentes separadas por ,&gt;` - se desubscribe a las fuentes deseadas
-`r!server subscriptions` - ve las fuentes disponibles para recibir feeds.
+`server sub &lt;nombre de fuentes separadas por ,&gt;` - se subscribe a las fuentes deseadas. Example: `r!server sub wykrhm,DOTA2`.
+`server unsub &lt;nombre de fuentes separadas por ,&gt;` - se desubscribe a las fuentes deseadas
+`server subscriptions` - ve las fuentes disponibles para recibir feeds.
 :information_source: Por defecto, las notificaciones y feeds estarán activados en el canal por defecto del servidor.
 :small_blue_diamond: __**Más ayuda**__
 Si necesitas más ayuda, ven a mi servidor https://discord.gg/SxsYkgX</t>
@@ -2342,10 +2359,10 @@
     <t>id.title</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user_name&gt;'s info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información de &lt;user_name&gt;</t>
+    <t xml:space="preserve">{{{user_name}}}'s info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de {{{user_name}}}</t>
   </si>
   <si>
     <t>item.notfound</t>
@@ -2378,10 +2395,10 @@
     <t>invite.text</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;roshan&gt; **Invitation**: &lt;link_invite&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;roshan&gt; **Invitación**: &lt;link_invite&gt;</t>
+    <t xml:space="preserve">{{{roshan}}} **Invitation**: {{{link_invite}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{roshan}}} **Invitación**: {{{link_invite}}}</t>
   </si>
   <si>
     <t>lang.avaliables</t>
@@ -2396,21 +2413,21 @@
     <t>leaderboard.text</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;roshan&gt; :chart_with_upwards_trend: **Leaderboard** &lt;link_web_leaderboard&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;roshan&gt; :chart_with_upwards_trend: **Tabla de líderes** &lt;link_web_leaderboard&gt;</t>
+    <t xml:space="preserve">{{{dota}}} {{{roshan}}} :chart_with_upwards_trend: **Leaderboard** {{{link_web_leaderboard}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{dota}}} {{{roshan}}} :chart_with_upwards_trend: **Tabla de líderes** {{{link_web_leaderboard}}}</t>
   </si>
   <si>
     <t>match.description</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;match_type&gt; &lt;match_skill&gt; Match ID: &lt;match_id&gt; [More info](&lt;match_link&gt;)
-:alarm_clock: &lt;duration&gt; :calendar_spiral: &lt;time&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;match_type&gt; &lt;match_skill&gt; ID partida: &lt;match_id&gt; [Más info](&lt;match_link&gt;)
-:alarm_clock: &lt;duration&gt; :calendar_spiral: &lt;time&gt;</t>
+    <t xml:space="preserve">{{{match_type}}} {{{match_skill}}} Match ID: {{{match_id}}} [More info]({{{match_link}}})
+:alarm_clock: {{{duration}}} :calendar_spiral: {{{time}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{match_type}}} {{{match_skill}}} ID partida: {{{match_id}}} [Más info]({{{match_link}}})
+:alarm_clock: {{{duration}}} :calendar_spiral: {{{time}}}</t>
   </si>
   <si>
     <t>match.eventgame</t>
@@ -2431,28 +2448,28 @@
     <t>match.title</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;team&gt; victory!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Victoria &lt;team&gt;!</t>
+    <t xml:space="preserve">{{{team}}} victory!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Victoria {{{team}}!</t>
   </si>
   <si>
     <t>matches.last</t>
   </si>
   <si>
-    <t xml:space="preserve">Last match: &lt;match_date&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Última partida: &lt;match_date&gt;</t>
+    <t xml:space="preserve">Last match: {{{match_date}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Última partida: {{{match_date}}}</t>
   </si>
   <si>
     <t>matches.playerinfo</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Recent matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Partidas recientes</t>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Recent matches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Partidas recientes</t>
   </si>
   <si>
     <t>medal</t>
@@ -2497,10 +2514,10 @@
     <t>player.playerinfo</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Jugador/a</t>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{player_user}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Jugador/a</t>
   </si>
   <si>
     <t>player.top5heroes</t>
@@ -2708,10 +2725,10 @@
     <t>randompick.message</t>
   </si>
   <si>
-    <t xml:space="preserve">**&lt;user_name&gt;** has chosen ramdomly to **&lt;hero&gt;**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**&lt;user_name&gt;** ha elegido al azar a **&lt;hero&gt;**</t>
+    <t xml:space="preserve">**{{user_name}}** has chosen ramdomly to **{{hero_name}}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**{{user_name}}** ha elegido al azar a **{{hero}}**</t>
   </si>
   <si>
     <t>reddit.error.postrequest</t>
@@ -2753,8 +2770,8 @@
     <t>register.dataurregistryaccount</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;dotaID&gt;
-&lt;steam&gt; &lt;steamID&gt;</t>
+    <t xml:space="preserve">{{{emoji_dota}}} {{dotaID}}
+{{{emoji_steam}}} {{steamID}}</t>
   </si>
   <si>
     <t>register.help</t>
@@ -2784,20 +2801,20 @@
     <t>register.helpregistrydesc</t>
   </si>
   <si>
-    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Use `r!help` to see avaliables commands.
-:information_source: You can use almost all commands by DM to **&lt;bot_name&gt;**!
-See your position in the bot ranking in &lt;link_web_leaderboard&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Usa `r!help` para ver los comandos disponibles.
-:information_source: ¡Puedes usar la mayoría de comandos por mensaje directo a **&lt;bot_name&gt;**!
-Mira tu posición en el ranking del bot en &lt;link_web_leaderboard&gt;</t>
+    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Use `/help` to see availables commands.
+:information_source: You can use almost all commands by DM to **{{{bot_name}}}**!
+See your position in the bot ranking in {{{link_web_leaderboard}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Usa `/help` para ver los comandos disponibles.
+:information_source: ¡Puedes usar la mayoría de comandos por mensaje directo a **{{{bot_name}}}**!
+Mira tu posición en el ranking del bot en {{{link_web_leaderboard}}}</t>
   </si>
   <si>
     <t>register.tyforurregistry</t>
   </si>
   <si>
-    <t xml:space="preserve">¡Thank you for your register :grin: !</t>
+    <t xml:space="preserve">¡Thank you for your registration :grin: !</t>
   </si>
   <si>
     <t xml:space="preserve">¡Muchas gracias por tu registro :grin: !</t>
@@ -2827,19 +2844,19 @@
     <t>roll.text</t>
   </si>
   <si>
-    <t xml:space="preserve">:game_die: **(&lt;min&gt;-&lt;max&gt;) | &lt;username&gt;** gets **&lt;random&gt;**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:game_die: **(&lt;min&gt;-&lt;max&gt;) | &lt;username&gt;** has obtenido un **&lt;random&gt;**</t>
+    <t xml:space="preserve">:game_die: **({{{min}}}-{{{max}}}) | {{{username}}}** gets **{{{random}}}**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:game_die: **({{{min}}}-{{{max}}}) | {{{username&gt;** has obtenido un **{{{random}}}**</t>
   </si>
   <si>
     <t>roshan.infoabout</t>
   </si>
   <si>
-    <t xml:space="preserve">Info about &lt;dota&gt; &lt;artifact&gt; **Dota 2 and Artifact for Discord**!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información sobre &lt;dota&gt; &lt;artifact&gt; **Dota 2 y Artifact para Discord**!</t>
+    <t xml:space="preserve">Info about {{{emoji_dota}}} {{{emoji_artifact}}} **Dota 2 and Artifact for Discord**!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre {{{emoji_dota}}} {{{emoji_artifact}}} **Dota 2 y Artifact para Discord**!</t>
   </si>
   <si>
     <t>roshan.plus</t>
@@ -2870,10 +2887,10 @@
     <t>roshan.welcometo</t>
   </si>
   <si>
-    <t xml:space="preserve">¡Welcome to Roshan &lt;roshan&gt;!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Bienvenido@ a Roshan &lt;roshan&gt;!</t>
+    <t xml:space="preserve">¡Welcome to Roshan {{{emoji_roshan}}}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Bienvenido@ a Roshan {{{emoji_roshan}}}!</t>
   </si>
   <si>
     <t>roshanGuildBibliotecaErrorTemplate</t>
@@ -2978,21 +2995,21 @@
     <t>searchplayer.description</t>
   </si>
   <si>
-    <t xml:space="preserve">Search (min. 2 characters) by: `&lt;query&gt;`
-&lt;text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Búsqueda (min. 2 carácteres) por: `&lt;query&gt;`
-&lt;text&gt;</t>
+    <t xml:space="preserve">Search by: `{{{query}}}`
+{{{results}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda por: `{{{query}}}`
+{{{results}}}</t>
   </si>
   <si>
     <t>searchplayer.footer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;match&gt; results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;match&gt; resultados</t>
+    <t xml:space="preserve">{{{count}}} results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{count}}} resultados</t>
   </si>
   <si>
     <t>searchplayer.mincharsrequired</t>
@@ -3031,10 +3048,10 @@
     <t>searchworldranking.errorfind</t>
   </si>
   <si>
-    <t xml:space="preserve">:x: It could find in World Ranking: `&lt;query&gt;`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:x: No se ha podido encontrar en la clasificación mundial: `&lt;_query&gt;`</t>
+    <t xml:space="preserve">:x: It could find in World Ranking: `{{query}}`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:x: No se ha podido encontrar en la clasificación mundial: `{{query}}`</t>
   </si>
   <si>
     <t>searchworldranking.needquery</t>
@@ -3049,12 +3066,12 @@
     <t>searchworldranking.resultssearchquery</t>
   </si>
   <si>
-    <t xml:space="preserve">Search: `&lt;_query&gt;`
-&lt;_results&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar: `&lt;_query&gt;`
-&lt;_results&gt;</t>
+    <t xml:space="preserve">Search: `{{query}}`
+{{{results}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar: `{{query}}`
+{{{results}}}</t>
   </si>
   <si>
     <t>searchworldranking.searchplayer</t>
@@ -3160,14 +3177,18 @@
     <t>steam.description</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;link&gt;: &lt;profile&gt;
-```&lt;url&gt;```</t>
+    <t xml:space="preserve">{{{link}}}: {{{profile}}}
+```{{{url}}}```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{link}}}: {{{profile}}}
+```{{{url}}}}```</t>
   </si>
   <si>
     <t>steam.playerinfo</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Steam</t>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Steam</t>
   </si>
   <si>
     <t>thanks.fields0.name</t>
@@ -3206,10 +3227,10 @@
     <t>top5Heroes</t>
   </si>
   <si>
-    <t xml:space="preserve">**&lt;hero&gt;:** (&lt;wr&gt;%) with &lt;games&gt; matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**&lt;hero&gt;:** (&lt;wr&gt;%) con &lt;games&gt; partidas</t>
+    <t xml:space="preserve">**{{{hero}}}:** ({{{wr}}}%) with {{{games}}} matches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**{{{hero}}}:** ({{{wr}}}%) con {{{games}}} partidas</t>
   </si>
   <si>
     <t>tournament.error.groupsnum</t>
@@ -3388,16 +3409,16 @@
     <t>unregisterAccountDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">**Guild/DM:** &lt;guildName&gt; **ChannelID:** &lt;guildID&gt;</t>
+    <t xml:space="preserve">**Guild/DM:** {{{guildName}}} **ChannelID:** {{guildID}}</t>
   </si>
   <si>
     <t>unregisterAccountTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Account deleted - &lt;id&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar cuenta - &lt;id&gt;</t>
+    <t xml:space="preserve">Account deleted - {{{user_account_id}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar cuenta - {{{user_account_id}}}</t>
   </si>
   <si>
     <t>users.amount</t>
@@ -3412,25 +3433,25 @@
     <t>web.text</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;dota&gt; &lt;roshan&gt; **RoshanApp** &lt;link_web&gt;</t>
+    <t xml:space="preserve">{{{emoji_dota}}} {{{emoji_roshan}}} **RoshanApp** {{{link_web}}}</t>
   </si>
   <si>
     <t>withfriends.footer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;number&gt; friends - 30 days ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;number&gt; amig@s - 30 últimos días</t>
+    <t xml:space="preserve">{{{count}}} friends - 30 days ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{count}}} amig@s - 30 últimos días</t>
   </si>
   <si>
     <t>withfriends.playerinfo</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Played with Friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Jugado con amig@s</t>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Played with friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Jugado con amig@s</t>
   </si>
   <si>
     <t>withfriends.withno</t>
@@ -3447,19 +3468,19 @@
     <t>withpros.footer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;number&gt; pros players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;number&gt; jugadores/as pros</t>
+    <t xml:space="preserve">{{{count}}} pro players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{count}}} jugadores/as pros</t>
   </si>
   <si>
     <t>withpros.playerinfo</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Played with Pr@s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;user&gt; &lt;flag&gt; &lt;medal&gt; &lt;supporter&gt; - Jugado con Pr@s</t>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Played with Pr@s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{player_username}}} {{{player_flag}}} {{{player_medal}}} {{{player_supporter}}} - Jugado con Pr@s</t>
   </si>
   <si>
     <t>withpros.withno</t>
@@ -3483,12 +3504,12 @@
     <t>worldranking.description</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;results&gt;
-**Divisions**: `&lt;divisions&gt;`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;results&gt;
-**Divisiones**: `&lt;divisions&gt;`</t>
+    <t xml:space="preserve">{{{results}}}
+**Divisions**: `{{divisions}}`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{results}}}
+**Divisiones**: `{{divisions}}`</t>
   </si>
   <si>
     <t>worldranking.error.request</t>
@@ -3503,13 +3524,13 @@
     <t>worldranking.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldranking - &lt;division&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasificación mundial - &lt;division&gt;</t>
-  </si>
-  <si>
-    <t>1v1rules.message</t>
+    <t xml:space="preserve">Worldranking - {{division}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificación mundial - {{division}}</t>
+  </si>
+  <si>
+    <t>1v1rules.normal.message</t>
   </si>
   <si>
     <t xml:space="preserve">__**Rules 1v1 Mid only**__ (Basic rules)
@@ -3536,7 +3557,7 @@
 - Ocultarse para perder tiempo</t>
   </si>
   <si>
-    <t>1v1rulesnr.message</t>
+    <t>1v1rules.nr.message</t>
   </si>
   <si>
     <t xml:space="preserve">__**Rules 1v1 Mid only**__ (No raindrop)
@@ -3571,9 +3592,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3609,7 +3630,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -3617,6 +3638,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4161,7 +4184,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A395" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4282,7 +4305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="49.5">
+    <row r="11" ht="66">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -4316,13 +4339,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4510,15 +4533,15 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>92</v>
@@ -4550,15 +4573,15 @@
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4569,35 +4592,35 @@
       <c r="B37" t="s">
         <v>104</v>
       </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -4652,15 +4675,15 @@
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
         <v>127</v>
@@ -4671,21 +4694,21 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -4693,21 +4716,21 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
@@ -4729,37 +4752,37 @@
         <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
         <v>147</v>
@@ -4784,15 +4807,15 @@
         <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
         <v>155</v>
@@ -4803,21 +4826,21 @@
         <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
@@ -4847,21 +4870,21 @@
         <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
@@ -4916,15 +4939,15 @@
         <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
         <v>186</v>
@@ -4935,21 +4958,21 @@
         <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
@@ -4957,21 +4980,21 @@
         <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
@@ -4993,29 +5016,29 @@
         <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
@@ -5023,76 +5046,76 @@
         <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
@@ -5110,15 +5133,15 @@
       <c r="A87" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B88" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5130,15 +5153,15 @@
         <v>221</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
         <v>224</v>
@@ -5149,21 +5172,21 @@
         <v>225</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
@@ -5237,32 +5260,32 @@
         <v>247</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -5303,21 +5326,21 @@
         <v>261</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107">
@@ -5325,21 +5348,21 @@
         <v>265</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
@@ -5372,15 +5395,15 @@
         <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C112" t="s">
         <v>279</v>
@@ -5391,21 +5414,21 @@
         <v>280</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115">
@@ -5413,21 +5436,21 @@
         <v>284</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117">
@@ -5435,21 +5458,21 @@
         <v>288</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="C117" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B118" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="C118" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119">
@@ -5460,15 +5483,15 @@
         <v>293</v>
       </c>
       <c r="C119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
         <v>296</v>
@@ -5479,21 +5502,21 @@
         <v>297</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B122" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123">
@@ -5504,15 +5527,15 @@
         <v>302</v>
       </c>
       <c r="C123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C124" t="s">
         <v>305</v>
@@ -5526,15 +5549,15 @@
         <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C126" t="s">
         <v>310</v>
@@ -5545,21 +5568,21 @@
         <v>311</v>
       </c>
       <c r="B127" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
@@ -5567,43 +5590,43 @@
         <v>315</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="C129" t="s">
-        <v>104</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133">
@@ -5611,32 +5634,32 @@
         <v>322</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="C135" t="s">
-        <v>326</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
@@ -5655,21 +5678,21 @@
         <v>330</v>
       </c>
       <c r="B137" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
@@ -5677,21 +5700,21 @@
         <v>334</v>
       </c>
       <c r="B139" t="s">
-        <v>104</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="C140" t="s">
-        <v>337</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
@@ -5702,15 +5725,15 @@
         <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
         <v>342</v>
@@ -5721,21 +5744,21 @@
         <v>343</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B144" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>346</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145">
@@ -5743,21 +5766,21 @@
         <v>347</v>
       </c>
       <c r="B145" t="s">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147">
@@ -5765,21 +5788,21 @@
         <v>351</v>
       </c>
       <c r="B147" t="s">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="C147" t="s">
-        <v>104</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149">
@@ -5790,15 +5813,15 @@
         <v>356</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C150" t="s">
         <v>359</v>
@@ -5809,21 +5832,21 @@
         <v>360</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C151" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B152" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153">
@@ -5831,21 +5854,21 @@
         <v>364</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C154" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155">
@@ -5853,21 +5876,21 @@
         <v>368</v>
       </c>
       <c r="B155" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C155" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B156" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157">
@@ -5889,26 +5912,26 @@
         <v>376</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s">
         <v>381</v>
@@ -5941,21 +5964,21 @@
         <v>388</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B164" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165">
@@ -5985,21 +6008,21 @@
         <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C167" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B168" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C168" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169">
@@ -6007,21 +6030,21 @@
         <v>402</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B170" t="s">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="C170" t="s">
-        <v>405</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171">
@@ -6029,29 +6052,29 @@
         <v>406</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="C171" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="C172" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
         <v>411</v>
@@ -6073,21 +6096,21 @@
         <v>415</v>
       </c>
       <c r="B175" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C176" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177">
@@ -6095,21 +6118,21 @@
         <v>419</v>
       </c>
       <c r="B177" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s">
-        <v>104</v>
+        <v>421</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s">
-        <v>422</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179">
@@ -6139,21 +6162,21 @@
         <v>429</v>
       </c>
       <c r="B181" t="s">
-        <v>104</v>
+        <v>430</v>
       </c>
       <c r="C181" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="C182" t="s">
-        <v>432</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183">
@@ -6164,18 +6187,18 @@
         <v>434</v>
       </c>
       <c r="C183" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="185">
@@ -6194,21 +6217,21 @@
         <v>441</v>
       </c>
       <c r="B186" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C187" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="188">
@@ -6227,21 +6250,21 @@
         <v>448</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
       <c r="C189" t="s">
-        <v>104</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="C190" t="s">
-        <v>451</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191">
@@ -6249,43 +6272,43 @@
         <v>452</v>
       </c>
       <c r="B191" t="s">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="C191" t="s">
-        <v>104</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B192" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="C192" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B193" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C193" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B194" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C194" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195">
@@ -6337,21 +6360,21 @@
         <v>471</v>
       </c>
       <c r="B199" t="s">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="C199" t="s">
-        <v>257</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B200" t="s">
-        <v>473</v>
+        <v>259</v>
       </c>
       <c r="C200" t="s">
-        <v>474</v>
+        <v>260</v>
       </c>
     </row>
     <row r="201">
@@ -6362,15 +6385,15 @@
         <v>476</v>
       </c>
       <c r="C201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C202" t="s">
         <v>479</v>
@@ -6403,43 +6426,43 @@
         <v>486</v>
       </c>
       <c r="B205" t="s">
-        <v>137</v>
+        <v>487</v>
       </c>
       <c r="C205" t="s">
-        <v>138</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B206" t="s">
-        <v>488</v>
+        <v>140</v>
       </c>
       <c r="C206" t="s">
-        <v>488</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B207" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
       <c r="C207" t="s">
-        <v>307</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B208" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="C208" t="s">
-        <v>492</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209">
@@ -6472,15 +6495,15 @@
         <v>500</v>
       </c>
       <c r="C211" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B212" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C212" t="s">
         <v>503</v>
@@ -6491,58 +6514,58 @@
         <v>504</v>
       </c>
       <c r="B213" t="s">
-        <v>104</v>
+        <v>505</v>
       </c>
       <c r="C213" t="s">
-        <v>104</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B214" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="C214" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B215" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="C215" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B216" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="C216" t="s">
-        <v>454</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
+      </c>
+      <c r="B217" t="s">
+        <v>457</v>
+      </c>
+      <c r="C217" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C218" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6550,7 +6573,7 @@
       <c r="A219" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C219" t="s">
@@ -6595,36 +6618,36 @@
         <v>524</v>
       </c>
       <c r="B223" t="s">
-        <v>104</v>
+        <v>525</v>
       </c>
       <c r="C223" t="s">
-        <v>104</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="C224" t="s">
-        <v>526</v>
+        <v>107</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="B225" t="s">
+        <v>188</v>
+      </c>
+      <c r="C225" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B226" t="s">
-        <v>529</v>
-      </c>
-      <c r="C226" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6632,15 +6655,15 @@
       <c r="A227" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="B227" t="s">
+        <v>532</v>
+      </c>
+      <c r="C227" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B228" t="s">
-        <v>533</v>
-      </c>
-      <c r="C228" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6649,21 +6672,21 @@
         <v>535</v>
       </c>
       <c r="B229" t="s">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="C229" t="s">
-        <v>104</v>
+        <v>537</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B230" t="s">
-        <v>537</v>
+        <v>107</v>
       </c>
       <c r="C230" t="s">
-        <v>538</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231">
@@ -6693,59 +6716,59 @@
         <v>545</v>
       </c>
       <c r="B233" t="s">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="C233" t="s">
-        <v>104</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B234" t="s">
-        <v>547</v>
+        <v>107</v>
       </c>
       <c r="C234" t="s">
-        <v>548</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
         <v>549</v>
       </c>
+      <c r="B235" t="s">
+        <v>550</v>
+      </c>
+      <c r="C235" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B236" t="s">
-        <v>551</v>
-      </c>
-      <c r="C236" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B237" t="s">
-        <v>256</v>
+        <v>554</v>
       </c>
       <c r="C237" t="s">
-        <v>257</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B238" t="s">
-        <v>554</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s">
-        <v>555</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239">
@@ -6753,21 +6776,21 @@
         <v>556</v>
       </c>
       <c r="B239" t="s">
-        <v>256</v>
+        <v>557</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>558</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B240" t="s">
-        <v>558</v>
+        <v>259</v>
       </c>
       <c r="C240" t="s">
-        <v>559</v>
+        <v>260</v>
       </c>
     </row>
     <row r="241">
@@ -6877,26 +6900,26 @@
         <v>588</v>
       </c>
       <c r="C250" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B251" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C251" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B252" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C252" t="s">
         <v>593</v>
@@ -6910,26 +6933,26 @@
         <v>595</v>
       </c>
       <c r="C253" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B254" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C254" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B255" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C255" t="s">
         <v>600</v>
@@ -6943,26 +6966,26 @@
         <v>602</v>
       </c>
       <c r="C256" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B257" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C257" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B258" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C258" t="s">
         <v>607</v>
@@ -6976,15 +6999,15 @@
         <v>609</v>
       </c>
       <c r="C259" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B260" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C260" t="s">
         <v>612</v>
@@ -7020,48 +7043,48 @@
         <v>620</v>
       </c>
       <c r="C263" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B264" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C264" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C266" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B267" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C267" t="s">
         <v>629</v>
@@ -7221,14 +7244,14 @@
         <v>671</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" ht="66">
       <c r="A282" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="4" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7247,10 +7270,10 @@
       <c r="A284" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" t="s">
         <v>679</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" t="s">
         <v>680</v>
       </c>
     </row>
@@ -7258,10 +7281,10 @@
       <c r="A285" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="3" t="s">
         <v>683</v>
       </c>
     </row>
@@ -7269,10 +7292,10 @@
       <c r="A286" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="3" t="s">
         <v>686</v>
       </c>
     </row>
@@ -7306,26 +7329,26 @@
         <v>694</v>
       </c>
       <c r="C289" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B290" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B291" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C291" t="s">
         <v>700</v>
@@ -7361,147 +7384,147 @@
         <v>708</v>
       </c>
       <c r="C294" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="295" ht="409.5">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="295">
       <c r="A295" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B295" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="B295" t="s">
         <v>711</v>
+      </c>
+      <c r="C295" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B296" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C296" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" ht="409.5">
       <c r="A297" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="C297" t="s">
-        <v>716</v>
+      <c r="C297" s="4" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B298" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C298" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B299" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C299" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B300" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C300" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B301" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C301" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B302" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="B302" t="s">
         <v>729</v>
+      </c>
+      <c r="C302" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B303" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>731</v>
+      <c r="B303" t="s">
+        <v>732</v>
+      </c>
+      <c r="C303" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B304" t="s">
         <v>733</v>
       </c>
-      <c r="C304" t="s">
+      <c r="B304" s="3" t="s">
         <v>734</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B305" t="s">
         <v>736</v>
       </c>
-      <c r="C305" t="s">
-        <v>736</v>
+      <c r="B305" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B306" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C306" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B307" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C307" t="s">
         <v>742</v>
@@ -7650,34 +7673,34 @@
         <v>781</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" ht="66">
       <c r="A321" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="C321" t="s">
-        <v>783</v>
+      <c r="C321" s="4" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B322" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C322" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B323" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C323" t="s">
         <v>789</v>
@@ -7713,37 +7736,37 @@
         <v>797</v>
       </c>
       <c r="C326" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B327" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C327" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B328" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C328" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B329" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C329" t="s">
         <v>805</v>
@@ -7878,48 +7901,48 @@
         <v>840</v>
       </c>
       <c r="C341" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B342" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C342" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B343" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C343" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B344" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C344" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B345" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C345" t="s">
         <v>851</v>
@@ -7977,26 +8000,26 @@
         <v>865</v>
       </c>
       <c r="C350" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B351" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C351" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B352" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C352" t="s">
         <v>871</v>
@@ -8076,28 +8099,28 @@
         <v>891</v>
       </c>
       <c r="C359" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B360" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C360" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="B361" t="s">
         <v>896</v>
       </c>
-      <c r="C361" t="s">
+      <c r="B361" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C361" s="4" t="s">
         <v>897</v>
       </c>
     </row>
@@ -8116,10 +8139,10 @@
       <c r="A363" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="4" t="s">
         <v>903</v>
       </c>
     </row>
@@ -8164,37 +8187,37 @@
         <v>914</v>
       </c>
       <c r="C367" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B368" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C368" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B369" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C369" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B370" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C370" t="s">
         <v>922</v>
@@ -8208,26 +8231,26 @@
         <v>924</v>
       </c>
       <c r="C371" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B372" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C372" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B373" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C373" t="s">
         <v>930</v>
@@ -8336,10 +8359,10 @@
       <c r="A383" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="4" t="s">
         <v>960</v>
       </c>
     </row>
@@ -8359,43 +8382,43 @@
         <v>964</v>
       </c>
       <c r="B385" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C385" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B386" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="C386" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="387">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="387" ht="49.5">
       <c r="A387" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="B387" t="s">
-        <v>967</v>
-      </c>
-      <c r="C387" t="s">
-        <v>968</v>
+        <v>970</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B388" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C388" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="389">
@@ -8431,66 +8454,66 @@
         <v>980</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" ht="49.5">
       <c r="A392" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="C392" t="s">
-        <v>982</v>
+      <c r="C392" s="4" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B393" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C393" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B394" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C394" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="395" ht="33">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="395">
       <c r="A395" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
+      </c>
+      <c r="B395" t="s">
+        <v>990</v>
       </c>
       <c r="C395" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B396" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C396" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" ht="33">
       <c r="A397" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>994</v>
       </c>
       <c r="C397" t="s">
@@ -8505,29 +8528,29 @@
         <v>997</v>
       </c>
       <c r="C398" t="s">
-        <v>432</v>
+        <v>998</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B399" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C399" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B400" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C400" t="s">
-        <v>1003</v>
+        <v>435</v>
       </c>
     </row>
     <row r="401">
@@ -8535,512 +8558,534 @@
         <v>1004</v>
       </c>
       <c r="B401" t="s">
-        <v>469</v>
+        <v>1005</v>
       </c>
       <c r="C401" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B402" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C402" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B403" t="s">
-        <v>1010</v>
+        <v>472</v>
       </c>
       <c r="C403" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B404" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C404" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="405">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="405" ht="33">
       <c r="A405" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B405" t="s">
-        <v>140</v>
-      </c>
-      <c r="C405" t="s">
-        <v>140</v>
+        <v>1015</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B406" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C406" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B407" t="s">
-        <v>510</v>
+        <v>143</v>
       </c>
       <c r="C407" t="s">
-        <v>511</v>
+        <v>143</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B408" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C408" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B409" t="s">
-        <v>1022</v>
+        <v>513</v>
       </c>
       <c r="C409" t="s">
-        <v>1023</v>
+        <v>514</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B410" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C410" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B411" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C411" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B412" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C412" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B413" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C413" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B414" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C414" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B415" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C415" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B416" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C416" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B417" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C417" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B418" t="s">
-        <v>705</v>
+        <v>1050</v>
       </c>
       <c r="C418" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B419" t="s">
-        <v>606</v>
+        <v>1053</v>
       </c>
       <c r="C419" t="s">
-        <v>607</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B420" t="s">
-        <v>1052</v>
+        <v>711</v>
       </c>
       <c r="C420" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B421" t="s">
-        <v>1055</v>
+        <v>609</v>
       </c>
       <c r="C421" t="s">
-        <v>1056</v>
+        <v>610</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B422" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C422" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B423" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C423" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B424" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C424" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B425" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C425" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B426" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C426" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B427" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C427" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B428" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C428" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B429" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C429" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B430" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C430" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B431" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C431" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B432" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C432" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B433" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C433" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B434" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C434" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B435" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C435" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B436" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C436" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B437" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C437" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B438" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C438" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B439" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C439" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B440" s="3" t="s">
         <v>1110</v>
       </c>
+      <c r="B440" t="s">
+        <v>1111</v>
+      </c>
       <c r="C440" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B441" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C441" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B442" t="s">
         <v>1116</v>
       </c>
+      <c r="B442" s="3" t="s">
+        <v>1117</v>
+      </c>
       <c r="C442" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B443" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C443" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="444">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="444" ht="33">
       <c r="A444" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B444" t="s">
         <v>1122</v>
       </c>
-      <c r="C444" t="s">
+      <c r="B444" s="4" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="445" ht="409.5">
+      <c r="C444" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="445">
       <c r="A445" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B445" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="C445" s="4" t="s">
+      <c r="B445" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="446" ht="409.5">
+      <c r="C445" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="446">
       <c r="A446" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B446" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="C446" s="4" t="s">
+      <c r="B446" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="447" ht="16.5"/>
+      <c r="C446" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="447" ht="409.5">
+      <c r="A447" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="448" ht="409.5">
+      <c r="A448" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="449" ht="16.5"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/locale/locale.xlsx
+++ b/locale/locale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
   <si>
     <t>langkey</t>
   </si>
@@ -2770,8 +2770,8 @@
     <t>register.dataurregistryaccount</t>
   </si>
   <si>
-    <t xml:space="preserve">{{{emoji_dota}}} {{dotaID}}
-{{{emoji_steam}}} {{steamID}}</t>
+    <t xml:space="preserve">{{{emoji_dota}}} {{{user_account_dota}}}
+{{{emoji_steam}}} {{{user_account_steam}}}</t>
   </si>
   <si>
     <t>register.help</t>
@@ -2801,13 +2801,11 @@
     <t>register.helpregistrydesc</t>
   </si>
   <si>
-    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Use `/help` to see availables commands.
-:information_source: You can use almost all commands by DM to **{{{bot_name}}}**!
+    <t xml:space="preserve">:information_source: You can use almost all commands by DM to **{{{bot_name}}}**!
 See your position in the bot ranking in {{{link_web_leaderboard}}}</t>
   </si>
   <si>
-    <t xml:space="preserve">:regional_indicator_h: :regional_indicator_e: :regional_indicator_l: :regional_indicator_p: Usa `/help` para ver los comandos disponibles.
-:information_source: ¡Puedes usar la mayoría de comandos por mensaje directo a **{{{bot_name}}}**!
+    <t xml:space="preserve">:information_source: ¡Puedes usar la mayoría de comandos por mensaje directo a **{{{bot_name}}}**!
 Mira tu posición en el ranking del bot en {{{link_web_leaderboard}}}</t>
   </si>
   <si>
@@ -2823,22 +2821,18 @@
     <t>registerAccountDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">**Guild/DM:** `&lt;guildName&gt;` **ID:** `&lt;guildID&gt;`
-&lt;dota&gt; &lt;dotaID&gt;
-&lt;steam&gt; &lt;steamID&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Guild/DM:** `&lt;guildName&gt;` **ID:** `&lt;guildID&gt;`
-&lt;dota&gt; &lt;dotaID&gt;</t>
+    <t xml:space="preserve">**Guild/DM:** `{{{guild_name}}}` **ID:** `{{{guild_id}}}`
+{{{emoji_dota}}} {{{dotaID}}}
+{{{emoji_steam}}} {{{steamID}}}</t>
   </si>
   <si>
     <t>registerAccountTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Account registered - &lt;id&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de cuenta - &lt;id&gt;</t>
+    <t xml:space="preserve">Account registered - {{{user_account_id}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de cuenta - {{{user_account_id}}}</t>
   </si>
   <si>
     <t>roll.text</t>
@@ -2992,7 +2986,7 @@
     <t xml:space="preserve">:x: Mazos no encontrados con: `&lt;search&gt;`</t>
   </si>
   <si>
-    <t>searchplayer.description</t>
+    <t>search_player.description</t>
   </si>
   <si>
     <t xml:space="preserve">Search by: `{{{query}}}`
@@ -3003,7 +2997,7 @@
 {{{results}}}</t>
   </si>
   <si>
-    <t>searchplayer.footer</t>
+    <t>search_player.footer</t>
   </si>
   <si>
     <t xml:space="preserve">{{{count}}} results</t>
@@ -3012,7 +3006,7 @@
     <t xml:space="preserve">{{{count}}} resultados</t>
   </si>
   <si>
-    <t>searchplayer.mincharsrequired</t>
+    <t>search_player.mincharsrequired</t>
   </si>
   <si>
     <t xml:space="preserve">Mín. characters to search is `2`</t>
@@ -3021,7 +3015,7 @@
     <t xml:space="preserve">El mínimo de carácteres a buscar es `2`</t>
   </si>
   <si>
-    <t>searchplayer.title</t>
+    <t>search_player.title</t>
   </si>
   <si>
     <t xml:space="preserve">Search Players</t>
@@ -3030,13 +3024,13 @@
     <t xml:space="preserve">Búsqueda de Jugadores/as</t>
   </si>
   <si>
-    <t>searchpro.description</t>
-  </si>
-  <si>
-    <t>searchpro.footer</t>
-  </si>
-  <si>
-    <t>searchpro.title</t>
+    <t>search_pro.description</t>
+  </si>
+  <si>
+    <t>search_pro.footer</t>
+  </si>
+  <si>
+    <t>search_pro.title</t>
   </si>
   <si>
     <t xml:space="preserve">Pros search</t>
@@ -3045,7 +3039,7 @@
     <t xml:space="preserve">Búsqueda de Pros</t>
   </si>
   <si>
-    <t>searchworldranking.errorfind</t>
+    <t>search_worldranking.errorfind</t>
   </si>
   <si>
     <t xml:space="preserve">:x: It could find in World Ranking: `{{query}}`</t>
@@ -3054,16 +3048,7 @@
     <t xml:space="preserve">:x: No se ha podido encontrar en la clasificación mundial: `{{query}}`</t>
   </si>
   <si>
-    <t>searchworldranking.needquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:x: It's neccesary to add a search text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:x: Es necesario añadir el término de búsqueda</t>
-  </si>
-  <si>
-    <t>searchworldranking.resultssearchquery</t>
+    <t>search_worldranking.resultssearchquery</t>
   </si>
   <si>
     <t xml:space="preserve">Search: `{{query}}`
@@ -3074,7 +3059,7 @@
 {{{results}}}</t>
   </si>
   <si>
-    <t>searchworldranking.searchplayer</t>
+    <t>search_worldranking.searchplayer</t>
   </si>
   <si>
     <t xml:space="preserve">Search player in World Ranking</t>
@@ -3630,7 +3615,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -3638,8 +3623,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4184,7 +4174,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A362" zoomScale="100" workbookViewId="0">
       <selection activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4339,13 +4329,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8113,36 +8103,36 @@
         <v>895</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" ht="33">
       <c r="A361" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="C361" s="5" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" ht="379.5">
       <c r="A362" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C362" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" ht="82.5">
       <c r="A363" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C363" s="5" t="s">
         <v>903</v>
       </c>
     </row>
@@ -8157,931 +8147,920 @@
         <v>906</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" ht="66">
       <c r="A365" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="C365" t="s">
-        <v>909</v>
+      <c r="C365" s="4" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B366" t="s">
         <v>910</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>911</v>
-      </c>
-      <c r="C366" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B367" t="s">
         <v>913</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>914</v>
-      </c>
-      <c r="C367" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B368" t="s">
         <v>916</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>917</v>
-      </c>
-      <c r="C368" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B369" t="s">
         <v>919</v>
       </c>
-      <c r="B369" t="s">
-        <v>920</v>
-      </c>
       <c r="C369" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B370" t="s">
         <v>921</v>
       </c>
-      <c r="B370" t="s">
-        <v>922</v>
-      </c>
       <c r="C370" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B371" t="s">
         <v>923</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>924</v>
-      </c>
-      <c r="C371" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B372" t="s">
         <v>926</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>927</v>
-      </c>
-      <c r="C372" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B373" t="s">
         <v>929</v>
       </c>
-      <c r="B373" t="s">
-        <v>930</v>
-      </c>
       <c r="C373" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B374" t="s">
         <v>931</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
         <v>932</v>
-      </c>
-      <c r="C374" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B375" t="s">
         <v>934</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C375" t="s">
         <v>935</v>
-      </c>
-      <c r="C375" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B376" t="s">
         <v>937</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
         <v>938</v>
-      </c>
-      <c r="C376" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B377" t="s">
         <v>940</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>941</v>
-      </c>
-      <c r="C377" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B378" t="s">
         <v>943</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>944</v>
-      </c>
-      <c r="C378" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B379" t="s">
         <v>946</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
         <v>947</v>
-      </c>
-      <c r="C379" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B380" t="s">
         <v>949</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
         <v>950</v>
-      </c>
-      <c r="C380" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B381" t="s">
         <v>952</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
         <v>953</v>
-      </c>
-      <c r="C381" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B382" t="s">
         <v>955</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>956</v>
       </c>
-      <c r="C382" t="s">
+    </row>
+    <row r="383" ht="49.5">
+      <c r="A383" s="6" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="2" t="s">
+      <c r="B383" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="C383" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="C383" s="4" t="s">
+    </row>
+    <row r="384">
+      <c r="A384" s="6" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="2" t="s">
+      <c r="B384" t="s">
         <v>961</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>962</v>
       </c>
-      <c r="C384" t="s">
+    </row>
+    <row r="385">
+      <c r="A385" s="6" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="2" t="s">
+      <c r="B385" t="s">
         <v>964</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>965</v>
       </c>
-      <c r="C385" t="s">
+    </row>
+    <row r="386">
+      <c r="A386" s="6" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="2" t="s">
+      <c r="B386" t="s">
         <v>967</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>968</v>
       </c>
-      <c r="C386" t="s">
+    </row>
+    <row r="387" ht="49.5">
+      <c r="A387" s="6" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="387" ht="49.5">
-      <c r="A387" s="2" t="s">
+      <c r="B387" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="B387" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="2" t="s">
+      <c r="B388" t="s">
+        <v>961</v>
+      </c>
+      <c r="C388" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="B388" t="s">
-        <v>962</v>
-      </c>
-      <c r="C388" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2" t="s">
+      <c r="B389" t="s">
         <v>972</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>973</v>
-      </c>
-      <c r="C389" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B390" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="C390" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="C391" t="s">
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="392" ht="49.5">
-      <c r="A392" s="2" t="s">
+      <c r="B392" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="C392" s="7" t="s">
         <v>982</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B393" t="s">
         <v>984</v>
       </c>
-      <c r="B393" t="s">
-        <v>985</v>
-      </c>
       <c r="C393" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B394" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C394" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B395" t="s">
+        <v>988</v>
+      </c>
+      <c r="C395" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="396" ht="33">
+      <c r="A396" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B396" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="C395" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="2" t="s">
+      <c r="C396" t="s">
         <v>991</v>
       </c>
-      <c r="B396" t="s">
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C396" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="397" ht="33">
-      <c r="A397" s="2" t="s">
+      <c r="B397" t="s">
         <v>993</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="C397" t="s">
         <v>994</v>
-      </c>
-      <c r="C397" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B398" t="s">
         <v>996</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>997</v>
-      </c>
-      <c r="C398" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B399" t="s">
         <v>999</v>
       </c>
-      <c r="B399" t="s">
-        <v>1000</v>
-      </c>
       <c r="C399" t="s">
-        <v>1001</v>
+        <v>435</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C400" t="s">
         <v>1002</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C400" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B401" t="s">
         <v>1004</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>1005</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B402" t="s">
+        <v>472</v>
+      </c>
+      <c r="C402" t="s">
         <v>1007</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C403" t="s">
         <v>1010</v>
       </c>
-      <c r="B403" t="s">
-        <v>472</v>
-      </c>
-      <c r="C403" t="s">
+    </row>
+    <row r="404" ht="33">
+      <c r="A404" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2" t="s">
+      <c r="B404" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="C404" t="s">
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="405" ht="33">
-      <c r="A405" s="2" t="s">
+      <c r="B405" t="s">
         <v>1015</v>
       </c>
-      <c r="B405" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>1017</v>
+      <c r="C405" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B406" t="s">
-        <v>1019</v>
+        <v>143</v>
       </c>
       <c r="C406" t="s">
-        <v>1019</v>
+        <v>143</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B407" t="s">
-        <v>143</v>
+        <v>1018</v>
       </c>
       <c r="C407" t="s">
-        <v>143</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B408" t="s">
-        <v>1022</v>
+        <v>513</v>
       </c>
       <c r="C408" t="s">
-        <v>1023</v>
+        <v>514</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B409" t="s">
-        <v>513</v>
+        <v>1022</v>
       </c>
       <c r="C409" t="s">
-        <v>514</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B410" t="s">
         <v>1025</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>1026</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B411" t="s">
         <v>1028</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
         <v>1029</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B412" t="s">
         <v>1031</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>1032</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B413" t="s">
         <v>1034</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>1035</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B414" t="s">
         <v>1037</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
         <v>1038</v>
-      </c>
-      <c r="C414" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B415" t="s">
         <v>1040</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
         <v>1041</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B416" t="s">
         <v>1043</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>1044</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B417" t="s">
         <v>1046</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
         <v>1047</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B418" t="s">
         <v>1049</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>1050</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B419" t="s">
+        <v>711</v>
+      </c>
+      <c r="C419" t="s">
         <v>1052</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C419" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B420" t="s">
-        <v>711</v>
+        <v>609</v>
       </c>
       <c r="C420" t="s">
-        <v>1056</v>
+        <v>610</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B421" t="s">
-        <v>609</v>
+        <v>1055</v>
       </c>
       <c r="C421" t="s">
-        <v>610</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B422" t="s">
         <v>1058</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
         <v>1059</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B423" t="s">
         <v>1061</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1062</v>
-      </c>
-      <c r="C423" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B424" t="s">
         <v>1064</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>1065</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B425" t="s">
         <v>1067</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>1068</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B426" t="s">
         <v>1070</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>1071</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B427" t="s">
         <v>1073</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>1074</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B428" t="s">
         <v>1076</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
         <v>1077</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B429" t="s">
         <v>1079</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>1080</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B430" t="s">
         <v>1082</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1083</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B431" t="s">
         <v>1085</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1086</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B432" t="s">
         <v>1088</v>
       </c>
-      <c r="B432" t="s">
-        <v>1089</v>
-      </c>
       <c r="C432" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C433" t="s">
         <v>1091</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C433" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B434" t="s">
         <v>1093</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C434" t="s">
         <v>1094</v>
-      </c>
-      <c r="C434" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B435" t="s">
         <v>1096</v>
       </c>
-      <c r="B435" t="s">
-        <v>1097</v>
-      </c>
       <c r="C435" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C436" t="s">
         <v>1099</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C436" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B437" t="s">
         <v>1101</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
         <v>1102</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B438" t="s">
         <v>1104</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
         <v>1105</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B439" t="s">
         <v>1107</v>
       </c>
-      <c r="B439" t="s">
+      <c r="C439" t="s">
         <v>1108</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B440" t="s">
         <v>1110</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>1111</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B441" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>1114</v>
-      </c>
-      <c r="C441" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B442" t="s">
         <v>1116</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="C442" t="s">
         <v>1117</v>
       </c>
-      <c r="C442" t="s">
+    </row>
+    <row r="443" ht="33">
+      <c r="A443" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="2" t="s">
+      <c r="B443" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="B443" t="s">
+      <c r="C443" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="C443" t="s">
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="444" ht="33">
-      <c r="A444" s="2" t="s">
+      <c r="B444" t="s">
         <v>1122</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="C444" t="s">
         <v>1123</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B445" t="s">
         <v>1125</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>1126</v>
       </c>
-      <c r="C445" t="s">
+    </row>
+    <row r="446" ht="409.5">
+      <c r="A446" s="2" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="2" t="s">
+      <c r="B446" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" s="4" t="s">
         <v>1129</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="447" ht="409.5">
       <c r="A447" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B447" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="C447" s="4" t="s">
         <v>1132</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="448" ht="409.5">
-      <c r="A448" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="449" ht="16.5"/>
+    </row>
+    <row r="448" ht="16.5"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
